--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.577517515779516</v>
+        <v>1.720800174688467</v>
       </c>
       <c r="D2">
-        <v>0.1148648715639315</v>
+        <v>0.09932303673510723</v>
       </c>
       <c r="E2">
         <v>0.7168583899373766</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4382697332330157</v>
+        <v>-0.4287187145169435</v>
       </c>
       <c r="D3">
-        <v>0.6612471442252392</v>
+        <v>0.6722965672392491</v>
       </c>
       <c r="E3">
         <v>0.7168583899373766</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.2030290747774268</v>
+        <v>0.2439908710706419</v>
       </c>
       <c r="D4">
-        <v>0.8391369076863111</v>
+        <v>0.8094988809203987</v>
       </c>
       <c r="E4">
         <v>0.7168583899373766</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.8873498561342916</v>
+        <v>0.9358898091791082</v>
       </c>
       <c r="D5">
-        <v>0.3750176594604964</v>
+        <v>0.3594903728900205</v>
       </c>
       <c r="E5">
         <v>0.7168583899373766</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.936937964231355</v>
+        <v>-1.583860312090974</v>
       </c>
       <c r="D6">
-        <v>0.05292050056855757</v>
+        <v>0.1274961754878616</v>
       </c>
       <c r="E6">
         <v>0.6733631690522695</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.158238414766846</v>
+        <v>-0.9682552645633468</v>
       </c>
       <c r="D7">
-        <v>0.2469314765966308</v>
+        <v>0.3434418120315914</v>
       </c>
       <c r="E7">
         <v>0.6733631690522695</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.5181311130962926</v>
+        <v>-0.4718571527917298</v>
       </c>
       <c r="D8">
-        <v>0.6044350604984041</v>
+        <v>0.6416751699281096</v>
       </c>
       <c r="E8">
         <v>0.6733631690522695</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.6840242219321304</v>
+        <v>0.7755936212397754</v>
       </c>
       <c r="D9">
-        <v>0.4940542648661275</v>
+        <v>0.4462467258789351</v>
       </c>
       <c r="E9">
         <v>0.7294306750590622</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.439744314316381</v>
+        <v>1.357420086661181</v>
       </c>
       <c r="D10">
-        <v>0.1501261667708973</v>
+        <v>0.1884105589662197</v>
       </c>
       <c r="E10">
         <v>0.7294306750590622</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.5997581939621367</v>
+        <v>0.6713615659656638</v>
       </c>
       <c r="D11">
-        <v>0.5487483264216801</v>
+        <v>0.5089788169397762</v>
       </c>
       <c r="E11">
         <v>0.7102461561992176</v>
